--- a/biology/Microbiologie/Chattonidium_setense/Chattonidium_setense.xlsx
+++ b/biology/Microbiologie/Chattonidium_setense/Chattonidium_setense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chattonidium · Chattonidiidae
 Chattonidium setense, unique représentant du genre Chattonidium et de la famille des Chattonidiidae, est une espèce de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Chattonidium a été donné par Simone Villeneuve-Brachon en hommage au protistologiste Édouard Chatton avec lequel elle a travaillé.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chattonidiidae sont des ciliés qui présentent une ressemblance superficielle avec les Oligotrichida en ce que le péristome est déplacé vers le pôle antérieur. Les membranelles[note 1] forment une spirale presque complète autour du bord de l'entonnoir péristomial, à la base duquel se trouve le cytostome. Dans l'anneau de membranelles, une membrane ondulante s'étend sur une certaine distance autour du péristome. La ciliation somatique est uniforme[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chattonidiidae sont des ciliés qui présentent une ressemblance superficielle avec les Oligotrichida en ce que le péristome est déplacé vers le pôle antérieur. Les membranelles[note 1] forment une spirale presque complète autour du bord de l'entonnoir péristomial, à la base duquel se trouve le cytostome. Dans l'anneau de membranelles, une membrane ondulante s'étend sur une certaine distance autour du péristome. La ciliation somatique est uniforme.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille monotypique des Chattonidiidae a été proposée en 1940 par la microbiologiste française Simone Villeneuve-Brachon (d)[2], également descriptrice de l'espèce et du genre en 1937. La systématique et la caractérisation de l'espèce ont été révisées en 2006[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille monotypique des Chattonidiidae a été proposée en 1940 par la microbiologiste française Simone Villeneuve-Brachon (d), également descriptrice de l'espèce et du genre en 1937. La systématique et la caractérisation de l'espèce ont été révisées en 2006.
 </t>
         </is>
       </c>
